--- a/xlsx/时代华纳_intext.xlsx
+++ b/xlsx/时代华纳_intext.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="630">
   <si>
     <t>时代华纳</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E4%BB%A3%E5%8D%8E%E7%BA%B3</t>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3%E8%8F%AF%E7%B4%8D</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%9D%90%E6%A0%87</t>
@@ -29,7 +29,7 @@
     <t>地理坐标</t>
   </si>
   <si>
-    <t>政策_政策_美國_时代华纳</t>
+    <t>政策_政策_美国_时代华纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B8%82</t>
@@ -59,13 +59,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E7%A5%A8%E4%BB%A3%E8%99%9F</t>
   </si>
   <si>
-    <t>股票代號</t>
+    <t>股票代号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E8%AD%89%E5%88%B8%E4%BA%A4%E6%98%93%E6%89%80</t>
   </si>
   <si>
-    <t>紐約證券交易所</t>
+    <t>纽约证券交易所</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/S%26P_100</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E8%BE%A6%E4%BA%BA</t>
   </si>
   <si>
-    <t>創辦人</t>
+    <t>创办人</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Steve_Ross_(businessman)</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E5%B8%83%E5%9C%93%E7%92%B0</t>
   </si>
   <si>
-    <t>哥倫布圓環</t>
+    <t>哥伦布圆环</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A7%E4%B8%9A</t>
@@ -149,13 +149,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9C%BE%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>大眾媒體</t>
+    <t>大众媒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E6%A5%AD%E9%A1%8D</t>
   </si>
   <si>
-    <t>營業額</t>
+    <t>营业额</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%85%E5%89%8D%E6%81%AF%E5%89%8D%E5%88%A9%E6%BD%A4</t>
   </si>
   <si>
-    <t>稅前息前利潤</t>
+    <t>税前息前利润</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%B6%A6</t>
@@ -179,13 +179,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E7%94%A2</t>
   </si>
   <si>
-    <t>資產</t>
+    <t>资产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E6%9D%B1%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>股東權益</t>
+    <t>股东权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/HBO</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E7%B4%8D%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>特納廣播公司</t>
+    <t>特纳广播公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%BA%B3%E5%85%84%E5%BC%9F</t>
@@ -221,9 +221,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E5%9B%BD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
@@ -245,7 +242,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AA%92%E9%AB%94%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>媒體集團</t>
+    <t>媒体集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%BD%B1</t>
@@ -269,7 +266,7 @@
     <t>https://zh.wikipedia.org/wiki/CW%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>CW電視網</t>
+    <t>CW电视网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E7%BA%BF%E7%94%B5%E8%A7%86%E6%96%B0%E9%97%BB%E7%BD%91</t>
@@ -347,7 +344,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E9%87%91%E6%99%82%E6%AE%B5%E8%89%BE%E7%BE%8E%E7%8D%8E</t>
   </si>
   <si>
-    <t>黃金時段艾美獎</t>
+    <t>黄金时段艾美奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%AA%E5%BD%95%E7%89%87</t>
@@ -407,7 +404,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%94%9F%E5%A6%82%E6%88%B2</t>
   </si>
   <si>
-    <t>人生如戲</t>
+    <t>人生如戏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%91%E5%90%AC%E9%A3%8E%E4%BA%91</t>
@@ -431,13 +428,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9C%9F%E6%84%9B%E5%A6%82%E8%A1%80</t>
   </si>
   <si>
-    <t>真愛如血</t>
+    <t>真爱如血</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>大西洋帝國</t>
+    <t>大西洋帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%B0%E5%A7%90%E4%BB%AC</t>
@@ -467,7 +464,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%AD%E6%A2%9D%E6%96%B0%E8%81%9E%E5%8F%B0</t>
   </si>
   <si>
-    <t>頭條新聞台</t>
+    <t>头条新闻台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E7%BA%B3%E7%94%B5%E8%A7%86%E7%BD%91</t>
@@ -479,7 +476,7 @@
     <t>https://zh.wikipedia.org/wiki/TBS_(%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96%E9%A0%BB%E9%81%93)</t>
   </si>
   <si>
-    <t>TBS (美國電視頻道)</t>
+    <t>TBS (美国电视频道)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/TBS_(U.S._TV_channel)</t>
@@ -491,7 +488,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%80%9A%E9%A0%BB%E9%81%93</t>
   </si>
   <si>
-    <t>卡通頻道</t>
+    <t>卡通频道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E7%BA%B3%E7%BB%8F%E5%85%B8%E7%94%B5%E5%BD%B1%E9%A2%91%E9%81%93</t>
@@ -527,7 +524,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%A4%A7%E5%AD%B8%E9%AB%94%E8%82%B2%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>國家大學體育協會</t>
+    <t>国家大学体育协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/PGA%E9%94%A6%E6%A0%87%E8%B5%9B</t>
@@ -557,7 +554,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E9%83%B5%E5%A0%B1</t>
   </si>
   <si>
-    <t>紐約郵報</t>
+    <t>纽约邮报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -587,7 +584,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>洛杉磯時報</t>
+    <t>洛杉矶时报</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/William_P._Barr</t>
@@ -629,7 +626,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E6%B2%83%E7%89%B9</t>
   </si>
   <si>
-    <t>保羅·沃特</t>
+    <t>保罗·沃特</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Deborah_Wright</t>
@@ -647,7 +644,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%B4%E6%97%8B%E9%8F%A2_(%E9%9B%BB%E8%A6%96%E9%A0%BB%E9%81%93)</t>
   </si>
   <si>
-    <t>迴旋鏢 (電視頻道)</t>
+    <t>回旋镖 (电视频道)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Adult_Swim</t>
@@ -671,7 +668,7 @@
     <t>https://zh.wikipedia.org/wiki/CNN%E5%9C%8B%E9%9A%9B%E6%96%B0%E8%81%9E%E7%B6%B2%E7%B5%A1</t>
   </si>
   <si>
-    <t>CNN國際新聞網絡</t>
+    <t>CNN国际新闻网络</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/NBA_TV</t>
@@ -1031,7 +1028,7 @@
     <t>https://zh.wikipedia.org/wiki/HBO%E5%BC%B7%E6%AA%94%E9%89%85%E7%8D%BB</t>
   </si>
   <si>
-    <t>HBO強檔鉅獻</t>
+    <t>HBO强档钜献</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/HBO_Signature_(Asia)</t>
@@ -1115,7 +1112,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%B4%8D%E9%9B%BB%E8%A6%96%E9%A0%BB%E9%81%93</t>
   </si>
   <si>
-    <t>華納電視頻道</t>
+    <t>华纳电视频道</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/World_Heritage_Channel</t>
@@ -1235,7 +1232,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%8D%A1%E9%80%9A%E7%B6%B2%E7%B5%A1%E5%B7%A5%E4%BD%9C%E5%AE%A4</t>
   </si>
   <si>
-    <t>歐洲卡通網絡工作室</t>
+    <t>欧洲卡通网络工作室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%80%9A%E9%A2%91%E9%81%93%E5%B7%A5%E4%BD%9C%E5%AE%A4</t>
@@ -1259,7 +1256,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%86%A0%E8%BB%8D%E6%91%94%E8%A7%92</t>
   </si>
   <si>
-    <t>世界冠軍摔角</t>
+    <t>世界冠军摔角</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Williams_Street</t>
@@ -1325,9 +1322,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%B4%8D%E5%85%84%E5%BC%9F</t>
   </si>
   <si>
-    <t>華納兄弟</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E5%85%8B%C2%B7%E5%8D%8E%E7%BA%B3</t>
   </si>
   <si>
@@ -1367,13 +1361,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%B7%9A%E5%BD%B1%E6%A5%AD</t>
   </si>
   <si>
-    <t>新線影業</t>
+    <t>新线影业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%A0%A1%E7%9F%B3%E5%A8%9B%E6%A8%82%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>城堡石娛樂公司</t>
+    <t>城堡石娱乐公司</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Flagship_Entertainment</t>
@@ -1403,7 +1397,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%B4%8D%E5%85%84%E5%BC%9F%E9%9B%BB%E8%A6%96%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>華納兄弟電視公司</t>
+    <t>华纳兄弟电视公司</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Warner_Bros._International_Television</t>
@@ -1463,13 +1457,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%B4%8D%E5%85%84%E5%BC%9F%E4%BA%92%E5%8B%95%E5%A8%9B%E6%A8%82</t>
   </si>
   <si>
-    <t>華納兄弟互動娛樂</t>
+    <t>华纳兄弟互动娱乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E8%96%87%E5%B5%90%E5%A5%87%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>艾薇嵐奇軟體</t>
+    <t>艾薇岚奇软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Monolith_Productions</t>
@@ -1547,13 +1541,10 @@
     <t>https://zh.wikipedia.org/wiki/DC%E6%BC%AB%E7%95%AB</t>
   </si>
   <si>
-    <t>DC漫畫</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%98%8B%E7%8B%82%E9%9B%9C%E8%AA%8C</t>
   </si>
   <si>
-    <t>瘋狂雜誌</t>
+    <t>疯狂杂志</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Vertigo_(DC_Comics)</t>
@@ -1583,7 +1574,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E7%B4%8D%E5%A8%9B%E6%A8%82</t>
   </si>
   <si>
-    <t>特納娛樂</t>
+    <t>特纳娱乐</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Turner_Entertainment</t>
@@ -1595,7 +1586,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E7%B4%8D%E5%B7%B4%E4%BC%AF%E6%8B%89%E5%8B%95%E7%95%AB</t>
   </si>
   <si>
-    <t>漢納巴伯拉動畫</t>
+    <t>汉纳巴伯拉动画</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/WaterTower_Music</t>
@@ -1715,7 +1706,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%B4%BB_(%E9%9B%9C%E8%AA%8C)</t>
   </si>
   <si>
-    <t>生活 (雜誌)</t>
+    <t>生活 (杂志)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Money_(magazine)</t>
@@ -1727,7 +1718,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%89%A9_(%E9%9B%9C%E8%AA%8C)</t>
   </si>
   <si>
-    <t>人物 (雜誌)</t>
+    <t>人物 (杂志)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/People_en_Espa%C3%B1ol</t>
@@ -1775,7 +1766,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3%E9%9B%9C%E8%AA%8C</t>
   </si>
   <si>
-    <t>時代雜誌</t>
+    <t>时代杂志</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Time_for_Kids</t>
@@ -1907,22 +1898,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3%E8%8F%AF%E7%B4%8D</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
+    <t>国际标准名称识别码</t>
   </si>
 </sst>
 </file>
@@ -2271,7 +2253,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I331"/>
+  <dimension ref="A1:I329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3250,7 +3232,7 @@
         <v>67</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="G34" t="n">
         <v>25</v>
@@ -3276,10 +3258,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>3</v>
@@ -3334,10 +3316,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -3363,10 +3345,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -3392,10 +3374,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -3421,10 +3403,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>17</v>
@@ -3450,10 +3432,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>64</v>
@@ -3479,10 +3461,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>3</v>
@@ -3508,10 +3490,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>4</v>
@@ -3537,10 +3519,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>6</v>
@@ -3566,10 +3548,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -3595,10 +3577,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -3630,7 +3612,7 @@
         <v>24</v>
       </c>
       <c r="G47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H47" t="s">
         <v>4</v>
@@ -3653,10 +3635,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" t="s">
         <v>91</v>
-      </c>
-      <c r="F48" t="s">
-        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -3682,10 +3664,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" t="s">
         <v>93</v>
-      </c>
-      <c r="F49" t="s">
-        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3711,10 +3693,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" t="s">
         <v>95</v>
-      </c>
-      <c r="F50" t="s">
-        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3740,10 +3722,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" t="s">
         <v>97</v>
-      </c>
-      <c r="F51" t="s">
-        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3769,10 +3751,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" t="s">
         <v>99</v>
-      </c>
-      <c r="F52" t="s">
-        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3798,10 +3780,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" t="s">
         <v>101</v>
-      </c>
-      <c r="F53" t="s">
-        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3856,10 +3838,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>102</v>
+      </c>
+      <c r="F55" t="s">
         <v>103</v>
-      </c>
-      <c r="F55" t="s">
-        <v>104</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -3885,10 +3867,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>104</v>
+      </c>
+      <c r="F56" t="s">
         <v>105</v>
-      </c>
-      <c r="F56" t="s">
-        <v>106</v>
       </c>
       <c r="G56" t="n">
         <v>5</v>
@@ -3914,10 +3896,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>106</v>
+      </c>
+      <c r="F57" t="s">
         <v>107</v>
-      </c>
-      <c r="F57" t="s">
-        <v>108</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3943,10 +3925,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>108</v>
+      </c>
+      <c r="F58" t="s">
         <v>109</v>
-      </c>
-      <c r="F58" t="s">
-        <v>110</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3972,10 +3954,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>76</v>
+      </c>
+      <c r="F59" t="s">
         <v>77</v>
-      </c>
-      <c r="F59" t="s">
-        <v>78</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -4001,10 +3983,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>110</v>
+      </c>
+      <c r="F60" t="s">
         <v>111</v>
-      </c>
-      <c r="F60" t="s">
-        <v>112</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -4030,10 +4012,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>112</v>
+      </c>
+      <c r="F61" t="s">
         <v>113</v>
-      </c>
-      <c r="F61" t="s">
-        <v>114</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -4059,10 +4041,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>114</v>
+      </c>
+      <c r="F62" t="s">
         <v>115</v>
-      </c>
-      <c r="F62" t="s">
-        <v>116</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -4088,10 +4070,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>116</v>
+      </c>
+      <c r="F63" t="s">
         <v>117</v>
-      </c>
-      <c r="F63" t="s">
-        <v>118</v>
       </c>
       <c r="G63" t="n">
         <v>3</v>
@@ -4117,10 +4099,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>118</v>
+      </c>
+      <c r="F64" t="s">
         <v>119</v>
-      </c>
-      <c r="F64" t="s">
-        <v>120</v>
       </c>
       <c r="G64" t="n">
         <v>5</v>
@@ -4146,10 +4128,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>120</v>
+      </c>
+      <c r="F65" t="s">
         <v>121</v>
-      </c>
-      <c r="F65" t="s">
-        <v>122</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4175,10 +4157,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>122</v>
+      </c>
+      <c r="F66" t="s">
         <v>123</v>
-      </c>
-      <c r="F66" t="s">
-        <v>124</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4204,10 +4186,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>124</v>
+      </c>
+      <c r="F67" t="s">
         <v>125</v>
-      </c>
-      <c r="F67" t="s">
-        <v>126</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4233,10 +4215,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>126</v>
+      </c>
+      <c r="F68" t="s">
         <v>127</v>
-      </c>
-      <c r="F68" t="s">
-        <v>128</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4262,10 +4244,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>128</v>
+      </c>
+      <c r="F69" t="s">
         <v>129</v>
-      </c>
-      <c r="F69" t="s">
-        <v>130</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4291,10 +4273,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>130</v>
+      </c>
+      <c r="F70" t="s">
         <v>131</v>
-      </c>
-      <c r="F70" t="s">
-        <v>132</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4320,10 +4302,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>132</v>
+      </c>
+      <c r="F71" t="s">
         <v>133</v>
-      </c>
-      <c r="F71" t="s">
-        <v>134</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4349,10 +4331,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>134</v>
+      </c>
+      <c r="F72" t="s">
         <v>135</v>
-      </c>
-      <c r="F72" t="s">
-        <v>136</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4378,10 +4360,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>136</v>
+      </c>
+      <c r="F73" t="s">
         <v>137</v>
-      </c>
-      <c r="F73" t="s">
-        <v>138</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4407,10 +4389,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>138</v>
+      </c>
+      <c r="F74" t="s">
         <v>139</v>
-      </c>
-      <c r="F74" t="s">
-        <v>140</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4436,10 +4418,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>140</v>
+      </c>
+      <c r="F75" t="s">
         <v>141</v>
-      </c>
-      <c r="F75" t="s">
-        <v>142</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4465,10 +4447,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>142</v>
+      </c>
+      <c r="F76" t="s">
         <v>143</v>
-      </c>
-      <c r="F76" t="s">
-        <v>144</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4494,10 +4476,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>144</v>
+      </c>
+      <c r="F77" t="s">
         <v>145</v>
-      </c>
-      <c r="F77" t="s">
-        <v>146</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4523,10 +4505,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>146</v>
+      </c>
+      <c r="F78" t="s">
         <v>147</v>
-      </c>
-      <c r="F78" t="s">
-        <v>148</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4552,10 +4534,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>148</v>
+      </c>
+      <c r="F79" t="s">
         <v>149</v>
-      </c>
-      <c r="F79" t="s">
-        <v>150</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4581,10 +4563,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>150</v>
+      </c>
+      <c r="F80" t="s">
         <v>151</v>
-      </c>
-      <c r="F80" t="s">
-        <v>152</v>
       </c>
       <c r="G80" t="n">
         <v>3</v>
@@ -4610,10 +4592,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>152</v>
+      </c>
+      <c r="F81" t="s">
         <v>153</v>
-      </c>
-      <c r="F81" t="s">
-        <v>154</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -4639,10 +4621,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>154</v>
+      </c>
+      <c r="F82" t="s">
         <v>155</v>
-      </c>
-      <c r="F82" t="s">
-        <v>156</v>
       </c>
       <c r="G82" t="n">
         <v>3</v>
@@ -4668,10 +4650,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>156</v>
+      </c>
+      <c r="F83" t="s">
         <v>157</v>
-      </c>
-      <c r="F83" t="s">
-        <v>158</v>
       </c>
       <c r="G83" t="n">
         <v>8</v>
@@ -4697,10 +4679,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>158</v>
+      </c>
+      <c r="F84" t="s">
         <v>159</v>
-      </c>
-      <c r="F84" t="s">
-        <v>160</v>
       </c>
       <c r="G84" t="n">
         <v>4</v>
@@ -4726,10 +4708,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>160</v>
+      </c>
+      <c r="F85" t="s">
         <v>161</v>
-      </c>
-      <c r="F85" t="s">
-        <v>162</v>
       </c>
       <c r="G85" t="n">
         <v>4</v>
@@ -4755,10 +4737,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>162</v>
+      </c>
+      <c r="F86" t="s">
         <v>163</v>
-      </c>
-      <c r="F86" t="s">
-        <v>164</v>
       </c>
       <c r="G86" t="n">
         <v>3</v>
@@ -4784,10 +4766,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>164</v>
+      </c>
+      <c r="F87" t="s">
         <v>165</v>
-      </c>
-      <c r="F87" t="s">
-        <v>166</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -4813,10 +4795,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>166</v>
+      </c>
+      <c r="F88" t="s">
         <v>167</v>
-      </c>
-      <c r="F88" t="s">
-        <v>168</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4842,10 +4824,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>168</v>
+      </c>
+      <c r="F89" t="s">
         <v>169</v>
-      </c>
-      <c r="F89" t="s">
-        <v>170</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4871,10 +4853,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>170</v>
+      </c>
+      <c r="F90" t="s">
         <v>171</v>
-      </c>
-      <c r="F90" t="s">
-        <v>172</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4900,10 +4882,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>172</v>
+      </c>
+      <c r="F91" t="s">
         <v>173</v>
-      </c>
-      <c r="F91" t="s">
-        <v>174</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4929,10 +4911,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>174</v>
+      </c>
+      <c r="F92" t="s">
         <v>175</v>
-      </c>
-      <c r="F92" t="s">
-        <v>176</v>
       </c>
       <c r="G92" t="n">
         <v>3</v>
@@ -4958,10 +4940,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>176</v>
+      </c>
+      <c r="F93" t="s">
         <v>177</v>
-      </c>
-      <c r="F93" t="s">
-        <v>178</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4987,10 +4969,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>178</v>
+      </c>
+      <c r="F94" t="s">
         <v>179</v>
-      </c>
-      <c r="F94" t="s">
-        <v>180</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5016,10 +4998,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>180</v>
+      </c>
+      <c r="F95" t="s">
         <v>181</v>
-      </c>
-      <c r="F95" t="s">
-        <v>182</v>
       </c>
       <c r="G95" t="n">
         <v>3</v>
@@ -5045,10 +5027,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>182</v>
+      </c>
+      <c r="F96" t="s">
         <v>183</v>
-      </c>
-      <c r="F96" t="s">
-        <v>184</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -5074,10 +5056,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>184</v>
+      </c>
+      <c r="F97" t="s">
         <v>185</v>
-      </c>
-      <c r="F97" t="s">
-        <v>186</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5103,10 +5085,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>186</v>
+      </c>
+      <c r="F98" t="s">
         <v>187</v>
-      </c>
-      <c r="F98" t="s">
-        <v>188</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5132,10 +5114,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>188</v>
+      </c>
+      <c r="F99" t="s">
         <v>189</v>
-      </c>
-      <c r="F99" t="s">
-        <v>190</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5161,10 +5143,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>190</v>
+      </c>
+      <c r="F100" t="s">
         <v>191</v>
-      </c>
-      <c r="F100" t="s">
-        <v>192</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5190,10 +5172,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>192</v>
+      </c>
+      <c r="F101" t="s">
         <v>193</v>
-      </c>
-      <c r="F101" t="s">
-        <v>194</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5219,10 +5201,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>194</v>
+      </c>
+      <c r="F102" t="s">
         <v>195</v>
-      </c>
-      <c r="F102" t="s">
-        <v>196</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5248,10 +5230,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>196</v>
+      </c>
+      <c r="F103" t="s">
         <v>197</v>
-      </c>
-      <c r="F103" t="s">
-        <v>198</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5277,10 +5259,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>198</v>
+      </c>
+      <c r="F104" t="s">
         <v>199</v>
-      </c>
-      <c r="F104" t="s">
-        <v>200</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5306,10 +5288,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>200</v>
+      </c>
+      <c r="F105" t="s">
         <v>201</v>
-      </c>
-      <c r="F105" t="s">
-        <v>202</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5335,10 +5317,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>202</v>
+      </c>
+      <c r="F106" t="s">
         <v>203</v>
-      </c>
-      <c r="F106" t="s">
-        <v>204</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5364,10 +5346,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>204</v>
+      </c>
+      <c r="F107" t="s">
         <v>205</v>
-      </c>
-      <c r="F107" t="s">
-        <v>206</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5393,10 +5375,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>206</v>
+      </c>
+      <c r="F108" t="s">
         <v>207</v>
-      </c>
-      <c r="F108" t="s">
-        <v>208</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5451,10 +5433,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>208</v>
+      </c>
+      <c r="F110" t="s">
         <v>209</v>
-      </c>
-      <c r="F110" t="s">
-        <v>210</v>
       </c>
       <c r="G110" t="n">
         <v>4</v>
@@ -5480,10 +5462,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>210</v>
+      </c>
+      <c r="F111" t="s">
         <v>211</v>
-      </c>
-      <c r="F111" t="s">
-        <v>212</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5509,10 +5491,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>212</v>
+      </c>
+      <c r="F112" t="s">
         <v>213</v>
-      </c>
-      <c r="F112" t="s">
-        <v>214</v>
       </c>
       <c r="G112" t="n">
         <v>3</v>
@@ -5538,10 +5520,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>214</v>
+      </c>
+      <c r="F113" t="s">
         <v>215</v>
-      </c>
-      <c r="F113" t="s">
-        <v>216</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5567,10 +5549,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>216</v>
+      </c>
+      <c r="F114" t="s">
         <v>217</v>
-      </c>
-      <c r="F114" t="s">
-        <v>218</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5596,10 +5578,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>148</v>
+      </c>
+      <c r="F115" t="s">
         <v>149</v>
-      </c>
-      <c r="F115" t="s">
-        <v>150</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5625,10 +5607,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>218</v>
+      </c>
+      <c r="F116" t="s">
         <v>219</v>
-      </c>
-      <c r="F116" t="s">
-        <v>220</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5654,10 +5636,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>220</v>
+      </c>
+      <c r="F117" t="s">
         <v>221</v>
-      </c>
-      <c r="F117" t="s">
-        <v>222</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5683,10 +5665,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>222</v>
+      </c>
+      <c r="F118" t="s">
         <v>223</v>
-      </c>
-      <c r="F118" t="s">
-        <v>224</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5712,10 +5694,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>224</v>
+      </c>
+      <c r="F119" t="s">
         <v>225</v>
-      </c>
-      <c r="F119" t="s">
-        <v>226</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5741,10 +5723,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>226</v>
+      </c>
+      <c r="F120" t="s">
         <v>227</v>
-      </c>
-      <c r="F120" t="s">
-        <v>228</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5770,10 +5752,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>228</v>
+      </c>
+      <c r="F121" t="s">
         <v>229</v>
-      </c>
-      <c r="F121" t="s">
-        <v>230</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5799,10 +5781,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>230</v>
+      </c>
+      <c r="F122" t="s">
         <v>231</v>
-      </c>
-      <c r="F122" t="s">
-        <v>232</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5828,10 +5810,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>232</v>
+      </c>
+      <c r="F123" t="s">
         <v>233</v>
-      </c>
-      <c r="F123" t="s">
-        <v>234</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5857,10 +5839,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>234</v>
+      </c>
+      <c r="F124" t="s">
         <v>235</v>
-      </c>
-      <c r="F124" t="s">
-        <v>236</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5886,10 +5868,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>236</v>
+      </c>
+      <c r="F125" t="s">
         <v>237</v>
-      </c>
-      <c r="F125" t="s">
-        <v>238</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5915,10 +5897,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>238</v>
+      </c>
+      <c r="F126" t="s">
         <v>239</v>
-      </c>
-      <c r="F126" t="s">
-        <v>240</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5944,10 +5926,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>240</v>
+      </c>
+      <c r="F127" t="s">
         <v>241</v>
-      </c>
-      <c r="F127" t="s">
-        <v>242</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5973,10 +5955,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>242</v>
+      </c>
+      <c r="F128" t="s">
         <v>243</v>
-      </c>
-      <c r="F128" t="s">
-        <v>244</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6002,10 +5984,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>244</v>
+      </c>
+      <c r="F129" t="s">
         <v>245</v>
-      </c>
-      <c r="F129" t="s">
-        <v>246</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6031,10 +6013,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>246</v>
+      </c>
+      <c r="F130" t="s">
         <v>247</v>
-      </c>
-      <c r="F130" t="s">
-        <v>248</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6060,10 +6042,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>248</v>
+      </c>
+      <c r="F131" t="s">
         <v>249</v>
-      </c>
-      <c r="F131" t="s">
-        <v>250</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6089,10 +6071,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>250</v>
+      </c>
+      <c r="F132" t="s">
         <v>251</v>
-      </c>
-      <c r="F132" t="s">
-        <v>252</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6118,10 +6100,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>252</v>
+      </c>
+      <c r="F133" t="s">
         <v>253</v>
-      </c>
-      <c r="F133" t="s">
-        <v>254</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6147,10 +6129,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>254</v>
+      </c>
+      <c r="F134" t="s">
         <v>255</v>
-      </c>
-      <c r="F134" t="s">
-        <v>256</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6176,10 +6158,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>256</v>
+      </c>
+      <c r="F135" t="s">
         <v>257</v>
-      </c>
-      <c r="F135" t="s">
-        <v>258</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6205,10 +6187,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>258</v>
+      </c>
+      <c r="F136" t="s">
         <v>259</v>
-      </c>
-      <c r="F136" t="s">
-        <v>260</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6234,10 +6216,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>260</v>
+      </c>
+      <c r="F137" t="s">
         <v>261</v>
-      </c>
-      <c r="F137" t="s">
-        <v>262</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6263,10 +6245,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>262</v>
+      </c>
+      <c r="F138" t="s">
         <v>263</v>
-      </c>
-      <c r="F138" t="s">
-        <v>264</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6292,10 +6274,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>264</v>
+      </c>
+      <c r="F139" t="s">
         <v>265</v>
-      </c>
-      <c r="F139" t="s">
-        <v>266</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6321,10 +6303,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>266</v>
+      </c>
+      <c r="F140" t="s">
         <v>267</v>
-      </c>
-      <c r="F140" t="s">
-        <v>268</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6350,10 +6332,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>268</v>
+      </c>
+      <c r="F141" t="s">
         <v>269</v>
-      </c>
-      <c r="F141" t="s">
-        <v>270</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6379,10 +6361,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>270</v>
+      </c>
+      <c r="F142" t="s">
         <v>271</v>
-      </c>
-      <c r="F142" t="s">
-        <v>272</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6408,10 +6390,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>272</v>
+      </c>
+      <c r="F143" t="s">
         <v>273</v>
-      </c>
-      <c r="F143" t="s">
-        <v>274</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6437,10 +6419,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>274</v>
+      </c>
+      <c r="F144" t="s">
         <v>275</v>
-      </c>
-      <c r="F144" t="s">
-        <v>276</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6466,10 +6448,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>276</v>
+      </c>
+      <c r="F145" t="s">
         <v>277</v>
-      </c>
-      <c r="F145" t="s">
-        <v>278</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6495,10 +6477,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>278</v>
+      </c>
+      <c r="F146" t="s">
         <v>279</v>
-      </c>
-      <c r="F146" t="s">
-        <v>280</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6524,10 +6506,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>280</v>
+      </c>
+      <c r="F147" t="s">
         <v>281</v>
-      </c>
-      <c r="F147" t="s">
-        <v>282</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6553,10 +6535,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>282</v>
+      </c>
+      <c r="F148" t="s">
         <v>283</v>
-      </c>
-      <c r="F148" t="s">
-        <v>284</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6582,10 +6564,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>158</v>
+      </c>
+      <c r="F149" t="s">
         <v>159</v>
-      </c>
-      <c r="F149" t="s">
-        <v>160</v>
       </c>
       <c r="G149" t="n">
         <v>4</v>
@@ -6611,10 +6593,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>284</v>
+      </c>
+      <c r="F150" t="s">
         <v>285</v>
-      </c>
-      <c r="F150" t="s">
-        <v>286</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6640,10 +6622,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>286</v>
+      </c>
+      <c r="F151" t="s">
         <v>287</v>
-      </c>
-      <c r="F151" t="s">
-        <v>288</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6669,10 +6651,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>288</v>
+      </c>
+      <c r="F152" t="s">
         <v>289</v>
-      </c>
-      <c r="F152" t="s">
-        <v>290</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6698,10 +6680,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>290</v>
+      </c>
+      <c r="F153" t="s">
         <v>291</v>
-      </c>
-      <c r="F153" t="s">
-        <v>292</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -6727,10 +6709,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>292</v>
+      </c>
+      <c r="F154" t="s">
         <v>293</v>
-      </c>
-      <c r="F154" t="s">
-        <v>294</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6756,10 +6738,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>150</v>
+      </c>
+      <c r="F155" t="s">
         <v>151</v>
-      </c>
-      <c r="F155" t="s">
-        <v>152</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -6785,10 +6767,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>150</v>
+      </c>
+      <c r="F156" t="s">
         <v>151</v>
-      </c>
-      <c r="F156" t="s">
-        <v>152</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6814,10 +6796,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>294</v>
+      </c>
+      <c r="F157" t="s">
         <v>295</v>
-      </c>
-      <c r="F157" t="s">
-        <v>296</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6843,10 +6825,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>296</v>
+      </c>
+      <c r="F158" t="s">
         <v>297</v>
-      </c>
-      <c r="F158" t="s">
-        <v>298</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6872,10 +6854,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>298</v>
+      </c>
+      <c r="F159" t="s">
         <v>299</v>
-      </c>
-      <c r="F159" t="s">
-        <v>300</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6901,10 +6883,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>300</v>
+      </c>
+      <c r="F160" t="s">
         <v>301</v>
-      </c>
-      <c r="F160" t="s">
-        <v>302</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6930,10 +6912,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>302</v>
+      </c>
+      <c r="F161" t="s">
         <v>303</v>
-      </c>
-      <c r="F161" t="s">
-        <v>304</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6959,10 +6941,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>304</v>
+      </c>
+      <c r="F162" t="s">
         <v>305</v>
-      </c>
-      <c r="F162" t="s">
-        <v>306</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6988,10 +6970,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>306</v>
+      </c>
+      <c r="F163" t="s">
         <v>307</v>
-      </c>
-      <c r="F163" t="s">
-        <v>308</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7017,10 +6999,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>308</v>
+      </c>
+      <c r="F164" t="s">
         <v>309</v>
-      </c>
-      <c r="F164" t="s">
-        <v>310</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7046,10 +7028,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>310</v>
+      </c>
+      <c r="F165" t="s">
         <v>311</v>
-      </c>
-      <c r="F165" t="s">
-        <v>312</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7075,10 +7057,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>312</v>
+      </c>
+      <c r="F166" t="s">
         <v>313</v>
-      </c>
-      <c r="F166" t="s">
-        <v>314</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7104,10 +7086,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>314</v>
+      </c>
+      <c r="F167" t="s">
         <v>315</v>
-      </c>
-      <c r="F167" t="s">
-        <v>316</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7133,10 +7115,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>316</v>
+      </c>
+      <c r="F168" t="s">
         <v>317</v>
-      </c>
-      <c r="F168" t="s">
-        <v>318</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7162,10 +7144,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>318</v>
+      </c>
+      <c r="F169" t="s">
         <v>319</v>
-      </c>
-      <c r="F169" t="s">
-        <v>320</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7191,10 +7173,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>320</v>
+      </c>
+      <c r="F170" t="s">
         <v>321</v>
-      </c>
-      <c r="F170" t="s">
-        <v>322</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7220,10 +7202,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>322</v>
+      </c>
+      <c r="F171" t="s">
         <v>323</v>
-      </c>
-      <c r="F171" t="s">
-        <v>324</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7249,10 +7231,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>324</v>
+      </c>
+      <c r="F172" t="s">
         <v>325</v>
-      </c>
-      <c r="F172" t="s">
-        <v>326</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7278,10 +7260,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>326</v>
+      </c>
+      <c r="F173" t="s">
         <v>327</v>
-      </c>
-      <c r="F173" t="s">
-        <v>328</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7307,10 +7289,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>328</v>
+      </c>
+      <c r="F174" t="s">
         <v>329</v>
-      </c>
-      <c r="F174" t="s">
-        <v>330</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7336,10 +7318,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>330</v>
+      </c>
+      <c r="F175" t="s">
         <v>331</v>
-      </c>
-      <c r="F175" t="s">
-        <v>332</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7365,10 +7347,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>332</v>
+      </c>
+      <c r="F176" t="s">
         <v>333</v>
-      </c>
-      <c r="F176" t="s">
-        <v>334</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7394,10 +7376,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>334</v>
+      </c>
+      <c r="F177" t="s">
         <v>335</v>
-      </c>
-      <c r="F177" t="s">
-        <v>336</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7423,10 +7405,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>336</v>
+      </c>
+      <c r="F178" t="s">
         <v>337</v>
-      </c>
-      <c r="F178" t="s">
-        <v>338</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7452,10 +7434,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>338</v>
+      </c>
+      <c r="F179" t="s">
         <v>339</v>
-      </c>
-      <c r="F179" t="s">
-        <v>340</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7481,10 +7463,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>340</v>
+      </c>
+      <c r="F180" t="s">
         <v>341</v>
-      </c>
-      <c r="F180" t="s">
-        <v>342</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7510,10 +7492,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>342</v>
+      </c>
+      <c r="F181" t="s">
         <v>343</v>
-      </c>
-      <c r="F181" t="s">
-        <v>344</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7539,10 +7521,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>344</v>
+      </c>
+      <c r="F182" t="s">
         <v>345</v>
-      </c>
-      <c r="F182" t="s">
-        <v>346</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7568,10 +7550,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>346</v>
+      </c>
+      <c r="F183" t="s">
         <v>347</v>
-      </c>
-      <c r="F183" t="s">
-        <v>348</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7597,10 +7579,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>348</v>
+      </c>
+      <c r="F184" t="s">
         <v>349</v>
-      </c>
-      <c r="F184" t="s">
-        <v>350</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7626,10 +7608,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>350</v>
+      </c>
+      <c r="F185" t="s">
         <v>351</v>
-      </c>
-      <c r="F185" t="s">
-        <v>352</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7655,10 +7637,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>352</v>
+      </c>
+      <c r="F186" t="s">
         <v>353</v>
-      </c>
-      <c r="F186" t="s">
-        <v>354</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7684,10 +7666,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>354</v>
+      </c>
+      <c r="F187" t="s">
         <v>355</v>
-      </c>
-      <c r="F187" t="s">
-        <v>356</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7713,10 +7695,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>356</v>
+      </c>
+      <c r="F188" t="s">
         <v>357</v>
-      </c>
-      <c r="F188" t="s">
-        <v>358</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7742,10 +7724,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>358</v>
+      </c>
+      <c r="F189" t="s">
         <v>359</v>
-      </c>
-      <c r="F189" t="s">
-        <v>360</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7771,10 +7753,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>360</v>
+      </c>
+      <c r="F190" t="s">
         <v>361</v>
-      </c>
-      <c r="F190" t="s">
-        <v>362</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7800,10 +7782,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>362</v>
+      </c>
+      <c r="F191" t="s">
         <v>363</v>
-      </c>
-      <c r="F191" t="s">
-        <v>364</v>
       </c>
       <c r="G191" t="n">
         <v>3</v>
@@ -7829,10 +7811,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>364</v>
+      </c>
+      <c r="F192" t="s">
         <v>365</v>
-      </c>
-      <c r="F192" t="s">
-        <v>366</v>
       </c>
       <c r="G192" t="n">
         <v>4</v>
@@ -7858,10 +7840,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>366</v>
+      </c>
+      <c r="F193" t="s">
         <v>367</v>
-      </c>
-      <c r="F193" t="s">
-        <v>368</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7887,10 +7869,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>368</v>
+      </c>
+      <c r="F194" t="s">
         <v>369</v>
-      </c>
-      <c r="F194" t="s">
-        <v>370</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7916,10 +7898,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>370</v>
+      </c>
+      <c r="F195" t="s">
         <v>371</v>
-      </c>
-      <c r="F195" t="s">
-        <v>372</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7945,10 +7927,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>372</v>
+      </c>
+      <c r="F196" t="s">
         <v>373</v>
-      </c>
-      <c r="F196" t="s">
-        <v>374</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7974,10 +7956,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>374</v>
+      </c>
+      <c r="F197" t="s">
         <v>375</v>
-      </c>
-      <c r="F197" t="s">
-        <v>376</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8003,10 +7985,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>376</v>
+      </c>
+      <c r="F198" t="s">
         <v>377</v>
-      </c>
-      <c r="F198" t="s">
-        <v>378</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8032,10 +8014,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>378</v>
+      </c>
+      <c r="F199" t="s">
         <v>379</v>
-      </c>
-      <c r="F199" t="s">
-        <v>380</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8061,10 +8043,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>380</v>
+      </c>
+      <c r="F200" t="s">
         <v>381</v>
-      </c>
-      <c r="F200" t="s">
-        <v>382</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8090,10 +8072,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>382</v>
+      </c>
+      <c r="F201" t="s">
         <v>383</v>
-      </c>
-      <c r="F201" t="s">
-        <v>384</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8119,10 +8101,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>384</v>
+      </c>
+      <c r="F202" t="s">
         <v>385</v>
-      </c>
-      <c r="F202" t="s">
-        <v>386</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8148,10 +8130,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>386</v>
+      </c>
+      <c r="F203" t="s">
         <v>387</v>
-      </c>
-      <c r="F203" t="s">
-        <v>388</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8177,10 +8159,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>388</v>
+      </c>
+      <c r="F204" t="s">
         <v>389</v>
-      </c>
-      <c r="F204" t="s">
-        <v>390</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8206,10 +8188,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>390</v>
+      </c>
+      <c r="F205" t="s">
         <v>391</v>
-      </c>
-      <c r="F205" t="s">
-        <v>392</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8235,10 +8217,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>392</v>
+      </c>
+      <c r="F206" t="s">
         <v>393</v>
-      </c>
-      <c r="F206" t="s">
-        <v>394</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8264,10 +8246,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>394</v>
+      </c>
+      <c r="F207" t="s">
         <v>395</v>
-      </c>
-      <c r="F207" t="s">
-        <v>396</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8293,10 +8275,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>396</v>
+      </c>
+      <c r="F208" t="s">
         <v>397</v>
-      </c>
-      <c r="F208" t="s">
-        <v>398</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8322,10 +8304,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>398</v>
+      </c>
+      <c r="F209" t="s">
         <v>399</v>
-      </c>
-      <c r="F209" t="s">
-        <v>400</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8351,10 +8333,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>400</v>
+      </c>
+      <c r="F210" t="s">
         <v>401</v>
-      </c>
-      <c r="F210" t="s">
-        <v>402</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8380,10 +8362,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>402</v>
+      </c>
+      <c r="F211" t="s">
         <v>403</v>
-      </c>
-      <c r="F211" t="s">
-        <v>404</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8409,10 +8391,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>404</v>
+      </c>
+      <c r="F212" t="s">
         <v>405</v>
-      </c>
-      <c r="F212" t="s">
-        <v>406</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8438,10 +8420,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>406</v>
+      </c>
+      <c r="F213" t="s">
         <v>407</v>
-      </c>
-      <c r="F213" t="s">
-        <v>408</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8467,10 +8449,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>408</v>
+      </c>
+      <c r="F214" t="s">
         <v>409</v>
-      </c>
-      <c r="F214" t="s">
-        <v>410</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8496,10 +8478,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>410</v>
+      </c>
+      <c r="F215" t="s">
         <v>411</v>
-      </c>
-      <c r="F215" t="s">
-        <v>412</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8525,10 +8507,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>412</v>
+      </c>
+      <c r="F216" t="s">
         <v>413</v>
-      </c>
-      <c r="F216" t="s">
-        <v>414</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8554,10 +8536,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>414</v>
+      </c>
+      <c r="F217" t="s">
         <v>415</v>
-      </c>
-      <c r="F217" t="s">
-        <v>416</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8583,10 +8565,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>416</v>
+      </c>
+      <c r="F218" t="s">
         <v>417</v>
-      </c>
-      <c r="F218" t="s">
-        <v>418</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8612,10 +8594,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>418</v>
+      </c>
+      <c r="F219" t="s">
         <v>419</v>
-      </c>
-      <c r="F219" t="s">
-        <v>420</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8641,10 +8623,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>420</v>
+      </c>
+      <c r="F220" t="s">
         <v>421</v>
-      </c>
-      <c r="F220" t="s">
-        <v>422</v>
       </c>
       <c r="G220" t="n">
         <v>2</v>
@@ -8670,10 +8652,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>422</v>
+      </c>
+      <c r="F221" t="s">
         <v>423</v>
-      </c>
-      <c r="F221" t="s">
-        <v>424</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8699,10 +8681,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>424</v>
+      </c>
+      <c r="F222" t="s">
         <v>425</v>
-      </c>
-      <c r="F222" t="s">
-        <v>426</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8728,10 +8710,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>426</v>
+      </c>
+      <c r="F223" t="s">
         <v>427</v>
-      </c>
-      <c r="F223" t="s">
-        <v>428</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8757,10 +8739,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>428</v>
+      </c>
+      <c r="F224" t="s">
         <v>429</v>
-      </c>
-      <c r="F224" t="s">
-        <v>430</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8786,10 +8768,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>430</v>
+      </c>
+      <c r="F225" t="s">
         <v>431</v>
-      </c>
-      <c r="F225" t="s">
-        <v>432</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8815,10 +8797,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>432</v>
+      </c>
+      <c r="F226" t="s">
         <v>433</v>
-      </c>
-      <c r="F226" t="s">
-        <v>434</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8844,10 +8826,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F227" t="s">
-        <v>436</v>
+        <v>62</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8873,10 +8855,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F228" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8902,10 +8884,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F229" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8931,10 +8913,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F230" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8960,10 +8942,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F231" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8989,10 +8971,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F232" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9047,10 +9029,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F234" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9076,10 +9058,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F235" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9105,10 +9087,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F236" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9134,10 +9116,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F237" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9163,10 +9145,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F238" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9192,10 +9174,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F239" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9221,10 +9203,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F240" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9250,10 +9232,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F241" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G241" t="n">
         <v>2</v>
@@ -9279,10 +9261,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F242" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G242" t="n">
         <v>5</v>
@@ -9308,10 +9290,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F243" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G243" t="n">
         <v>2</v>
@@ -9337,10 +9319,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F244" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9366,10 +9348,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F245" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9395,10 +9377,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F246" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9424,10 +9406,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F247" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9453,10 +9435,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F248" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9482,10 +9464,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F249" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9511,10 +9493,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F250" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9540,10 +9522,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F251" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9569,10 +9551,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F252" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9598,10 +9580,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F253" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9627,10 +9609,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F254" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9656,10 +9638,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F255" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9685,10 +9667,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F256" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9714,10 +9696,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F257" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G257" t="n">
         <v>2</v>
@@ -9743,10 +9725,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F258" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9772,10 +9754,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F259" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9801,10 +9783,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F260" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9830,10 +9812,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F261" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9859,10 +9841,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F262" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9888,10 +9870,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F263" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9917,10 +9899,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F264" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9946,10 +9928,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F265" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9975,10 +9957,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F266" t="s">
-        <v>510</v>
+        <v>87</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10004,10 +9986,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F267" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10033,10 +10015,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F268" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10062,10 +10044,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F269" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10091,10 +10073,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F270" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10120,10 +10102,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F271" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10149,10 +10131,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F272" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10178,10 +10160,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F273" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10207,10 +10189,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F274" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10236,10 +10218,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F275" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10265,10 +10247,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F276" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10294,10 +10276,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F277" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G277" t="n">
         <v>4</v>
@@ -10323,10 +10305,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F278" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10352,10 +10334,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F279" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10381,10 +10363,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F280" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10410,10 +10392,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F281" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10439,10 +10421,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
+        <v>340</v>
+      </c>
+      <c r="F282" t="s">
         <v>341</v>
-      </c>
-      <c r="F282" t="s">
-        <v>342</v>
       </c>
       <c r="G282" t="n">
         <v>2</v>
@@ -10468,10 +10450,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F283" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10497,10 +10479,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F284" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G284" t="n">
         <v>2</v>
@@ -10526,10 +10508,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F285" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G285" t="n">
         <v>2</v>
@@ -10555,10 +10537,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F286" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10584,10 +10566,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F287" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10613,10 +10595,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F288" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10642,10 +10624,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F289" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10671,10 +10653,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F290" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10700,10 +10682,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F291" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10729,10 +10711,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F292" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10758,10 +10740,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F293" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10787,10 +10769,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F294" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10816,10 +10798,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F295" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G295" t="n">
         <v>2</v>
@@ -10845,10 +10827,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F296" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G296" t="n">
         <v>5</v>
@@ -10874,10 +10856,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F297" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10903,10 +10885,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F298" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G298" t="n">
         <v>3</v>
@@ -10932,10 +10914,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F299" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -10961,10 +10943,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F300" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -10990,10 +10972,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F301" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11019,10 +11001,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F302" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G302" t="n">
         <v>2</v>
@@ -11048,10 +11030,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F303" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11077,10 +11059,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F304" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11106,10 +11088,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F305" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11135,10 +11117,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F306" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G306" t="n">
         <v>25</v>
@@ -11164,10 +11146,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F307" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11193,10 +11175,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F308" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11222,10 +11204,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F309" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11251,10 +11233,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F310" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11280,10 +11262,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F311" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11309,10 +11291,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F312" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11338,10 +11320,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F313" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11367,10 +11349,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F314" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11396,10 +11378,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F315" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11425,10 +11407,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F316" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11454,10 +11436,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F317" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11483,10 +11465,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F318" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11512,10 +11494,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F319" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11541,10 +11523,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F320" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11570,10 +11552,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F321" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11599,10 +11581,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F322" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11628,10 +11610,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F323" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11657,10 +11639,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F324" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11686,10 +11668,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="F325" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11715,10 +11697,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F326" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="G326" t="n">
         <v>18</v>
@@ -11744,10 +11726,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F327" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -11773,10 +11755,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="F328" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G328" t="n">
         <v>3</v>
@@ -11802,10 +11784,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F329" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -11814,64 +11796,6 @@
         <v>4</v>
       </c>
       <c r="I329" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="330" spans="1:9">
-      <c r="A330" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B330" t="s">
-        <v>0</v>
-      </c>
-      <c r="C330" t="s">
-        <v>1</v>
-      </c>
-      <c r="D330" t="n">
-        <v>329</v>
-      </c>
-      <c r="E330" t="s">
-        <v>633</v>
-      </c>
-      <c r="F330" t="s">
-        <v>634</v>
-      </c>
-      <c r="G330" t="n">
-        <v>6</v>
-      </c>
-      <c r="H330" t="s">
-        <v>4</v>
-      </c>
-      <c r="I330" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="331" spans="1:9">
-      <c r="A331" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B331" t="s">
-        <v>0</v>
-      </c>
-      <c r="C331" t="s">
-        <v>1</v>
-      </c>
-      <c r="D331" t="n">
-        <v>330</v>
-      </c>
-      <c r="E331" t="s">
-        <v>633</v>
-      </c>
-      <c r="F331" t="s">
-        <v>635</v>
-      </c>
-      <c r="G331" t="n">
-        <v>1</v>
-      </c>
-      <c r="H331" t="s">
-        <v>4</v>
-      </c>
-      <c r="I331" t="n">
         <v>3</v>
       </c>
     </row>
